--- a/data/trans_camb/P28B_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P28B_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,66</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,28</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-8,67</t>
+          <t>-6,5</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,52</t>
+          <t>-1,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-7,92</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>-3,12</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-4,38</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-8,15</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
+          <t>-7,17</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 3,19</t>
+          <t>-11,86; 3,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,43; -1,62</t>
+          <t>-13,09; 2,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-15,98; -1,27</t>
+          <t>-13,7; 2,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 6,97</t>
+          <t>-9,58; 7,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 6,52</t>
+          <t>-9,11; 6,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 8,14</t>
+          <t>-15,47; -0,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-15,06; -0,34</t>
+          <t>-8,93; 2,24</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 10,86</t>
+          <t>-9,17; 1,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 2,37</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-9,36; 1,05</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-12,88; -2,26</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-6,45; 6,61</t>
+          <t>-12,86; -2,0</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,48%</t>
+          <t>-27,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-50,58%</t>
+          <t>-40,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-52,97%</t>
+          <t>-39,71%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-15,37%</t>
+          <t>-9,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-13,12%</t>
+          <t>-3,11%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-2,66%</t>
+          <t>-43,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-42,78%</t>
+          <t>-18,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>-20,99%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-20,64%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-25,56%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-47,49%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-4,01%</t>
+          <t>-41,81%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-62,8; 24,9</t>
+          <t>-59,64; 32,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-75,27; -9,9</t>
+          <t>-67,66; 26,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-79,16; -6,01</t>
+          <t>-72,25; 24,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-55,73; 55,88</t>
+          <t>-44,98; 46,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,45; 51,28</t>
+          <t>-43,13; 49,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,0; 59,06</t>
+          <t>-67,52; -5,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-66,38; 2,01</t>
+          <t>-45,33; 16,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 75,82</t>
+          <t>-45,86; 11,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-46,22; 16,05</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-47,61; 8,16</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-66,01; -14,53</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-33,85; 43,68</t>
+          <t>-63,42; -11,64</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,14</t>
+          <t>-4,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,03</t>
+          <t>-8,02</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-10,08</t>
+          <t>-10,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,22</t>
+          <t>-9,47</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,98</t>
+          <t>-9,67</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-9,41</t>
+          <t>-12,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-12,57</t>
+          <t>-6,83</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>-8,84</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-6,46</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-8,72</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-11,31</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-4,49</t>
+          <t>-11,22</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-11,85; 3,57</t>
+          <t>-11,66; 3,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-15,24; -1,98</t>
+          <t>-16,01; -1,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-16,85; -3,65</t>
+          <t>-16,68; -3,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,05; -0,4</t>
+          <t>-16,41; -1,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-16,75; -0,65</t>
+          <t>-17,17; -2,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,85; -2,52</t>
+          <t>-18,63; -5,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,92; -5,73</t>
+          <t>-12,02; -0,97</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 9,37</t>
+          <t>-14,06; -4,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,87; -1,25</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-14,05; -3,8</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-16,05; -6,64</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 1,97</t>
+          <t>-15,81; -6,37</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-24,54%</t>
+          <t>-26,08%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-47,67%</t>
+          <t>-47,6%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-59,79%</t>
+          <t>-59,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-54,73%</t>
+          <t>-42,18%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-39,99%</t>
+          <t>-43,06%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,9%</t>
+          <t>-55,28%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-55,96%</t>
+          <t>-34,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,63%</t>
+          <t>-45,22%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-33,06%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-44,6%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-57,87%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-22,98%</t>
+          <t>-57,43%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,81; 30,29</t>
+          <t>-55,08; 28,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-72,52; -10,83</t>
+          <t>-72,18; -8,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-77,99; -24,96</t>
+          <t>-81,0; -23,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-80,09; 1,67</t>
+          <t>-63,74; -6,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-64,24; -3,25</t>
+          <t>-64,01; -13,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-61,23; -11,96</t>
+          <t>-71,68; -28,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-73,9; -29,37</t>
+          <t>-54,05; -6,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,02; 47,89</t>
+          <t>-61,42; -24,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,83; -5,67</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-62,91; -22,99</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-71,86; -38,33</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-45,78; 11,04</t>
+          <t>-70,5; -36,45</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-14,81</t>
+          <t>-14,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-20,33</t>
+          <t>-20,09</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-20,21</t>
+          <t>-20,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-17,48</t>
+          <t>-15,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-15,88</t>
+          <t>-20,04</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-20,14</t>
+          <t>-18,9</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-18,99</t>
+          <t>-14,64</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-13,16</t>
+          <t>-20,05</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-15,36</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-20,22</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-19,57</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-15,52</t>
+          <t>-19,5</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-22,94; -7,57</t>
+          <t>-21,07; -6,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,06; -13,24</t>
+          <t>-27,44; -13,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-27,27; -13,52</t>
+          <t>-26,91; -13,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-24,43; -10,23</t>
+          <t>-21,55; -8,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,15; -10,11</t>
+          <t>-25,88; -14,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,8; -14,89</t>
+          <t>-24,34; -12,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-24,76; -13,56</t>
+          <t>-19,74; -10,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,73; -6,58</t>
+          <t>-24,86; -15,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-20,05; -10,31</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-24,4; -16,01</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-24,1; -15,49</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-20,68; -11,07</t>
+          <t>-24,02; -15,25</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-56,26%</t>
+          <t>-53,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-77,21%</t>
+          <t>-76,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-76,75%</t>
+          <t>-76,61%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-66,38%</t>
+          <t>-53,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-56,11%</t>
+          <t>-70,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-71,14%</t>
+          <t>-66,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-67,1%</t>
+          <t>-53,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-46,49%</t>
+          <t>-73,36%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-56,2%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-73,99%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-71,59%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-56,79%</t>
+          <t>-71,34%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-72,92; -28,17</t>
+          <t>-70,36; -27,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-86,5; -59,36</t>
+          <t>-86,81; -61,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-86,84; -61,14</t>
+          <t>-87,16; -61,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-79,07; -45,89</t>
+          <t>-67,93; -33,74</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-70,18; -39,02</t>
+          <t>-80,49; -56,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-80,57; -58,87</t>
+          <t>-77,25; -51,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-76,54; -53,21</t>
+          <t>-65,57; -40,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-62,35; -25,06</t>
+          <t>-80,52; -64,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-66,6; -41,18</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-81,05; -64,66</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-79,04; -61,77</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-67,78; -44,18</t>
+          <t>-78,78; -60,98</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,9</t>
+          <t>-4,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-7,02</t>
+          <t>-7,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-8,74</t>
+          <t>-8,86</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>-13,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,31</t>
+          <t>-14,43</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-14,59</t>
+          <t>-15,3</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-15,34</t>
+          <t>-8,9</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-11,42</t>
+          <t>-10,99</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-8,84</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-11,03</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-12,27</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-6,27</t>
+          <t>-12,3</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 1,16</t>
+          <t>-9,66; 0,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,62; -3,14</t>
+          <t>-12,03; -3,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-13,17; -4,3</t>
+          <t>-13,33; -4,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 6,24</t>
+          <t>-18,74; -8,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,47; -7,54</t>
+          <t>-20,13; -9,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-20,38; -9,7</t>
+          <t>-20,22; -10,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-20,36; -10,24</t>
+          <t>-12,75; -5,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-16,97; -4,96</t>
+          <t>-14,99; -7,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-12,64; -4,78</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-14,52; -7,86</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-15,82; -8,93</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-10,54; -1,51</t>
+          <t>-15,85; -8,97</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-33,56%</t>
+          <t>-35,3%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-60,43%</t>
+          <t>-61,21%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-75,31%</t>
+          <t>-76,37%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-5,33%</t>
+          <t>-59,54%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-59,87%</t>
+          <t>-64,9%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-65,61%</t>
+          <t>-68,84%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-69,01%</t>
+          <t>-51,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-51,37%</t>
+          <t>-63,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-51,44%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-64,19%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-71,42%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-36,51%</t>
+          <t>-71,63%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-60,96; 13,81</t>
+          <t>-64,06; 8,54</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-80,1; -31,43</t>
+          <t>-81,4; -33,21</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-91,67; -29,63</t>
+          <t>-91,93; -28,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-49,04; 68,07</t>
+          <t>-74,28; -41,58</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-73,65; -38,23</t>
+          <t>-78,54; -49,2</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-78,91; -48,98</t>
+          <t>-79,71; -53,53</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-79,08; -52,3</t>
+          <t>-65,62; -32,87</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-67,67; -23,99</t>
+          <t>-75,07; -49,73</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-64,82; -30,93</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-74,93; -50,16</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-80,71; -56,46</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-54,65; -7,89</t>
+          <t>-80,9; -55,46</t>
         </is>
       </c>
     </row>
@@ -1760,62 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-4,16</t>
+          <t>-4,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-7,17</t>
+          <t>-7,06</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-6,55</t>
+          <t>-6,65</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-11,5</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-11,76</t>
+          <t>-12,23</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-12,15</t>
+          <t>-15,01</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-14,99</t>
+          <t>-7,67</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-11,77</t>
+          <t>-9,61</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-7,88</t>
-        </is>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>-9,61</t>
-        </is>
-      </c>
-      <c r="M20" s="2" t="inlineStr">
-        <is>
-          <t>-10,7</t>
-        </is>
-      </c>
-      <c r="N20" s="2" t="inlineStr">
-        <is>
-          <t>-5,94</t>
+          <t>-10,75</t>
         </is>
       </c>
     </row>
@@ -1828,62 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-8,67; -0,0</t>
+          <t>-8,47; 0,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-11,29; -3,32</t>
+          <t>-11,2; -3,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,19; -2,97</t>
+          <t>-10,9; -3,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 6,27</t>
+          <t>-18,33; -5,13</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-18,55; -5,63</t>
+          <t>-19,23; -6,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-18,42; -5,86</t>
+          <t>-21,11; -9,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-21,47; -9,14</t>
+          <t>-11,98; -3,83</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-18,26; -5,35</t>
+          <t>-13,87; -6,49</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-11,89; -4,23</t>
-        </is>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>-13,22; -5,77</t>
-        </is>
-      </c>
-      <c r="M21" s="2" t="inlineStr">
-        <is>
-          <t>-14,62; -7,02</t>
-        </is>
-      </c>
-      <c r="N21" s="2" t="inlineStr">
-        <is>
-          <t>-10,48; -1,84</t>
+          <t>-14,78; -7,59</t>
         </is>
       </c>
     </row>
@@ -1896,62 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-46,83%</t>
+          <t>-44,98%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-80,72%</t>
+          <t>-79,5%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-73,77%</t>
+          <t>-74,79%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-2,01%</t>
+          <t>-58,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-59,89%</t>
+          <t>-62,3%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-61,86%</t>
+          <t>-76,43%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-76,34%</t>
+          <t>-54,0%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-59,94%</t>
+          <t>-67,6%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-55,48%</t>
-        </is>
-      </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>-67,64%</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>-75,32%</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
-        <is>
-          <t>-41,83%</t>
+          <t>-75,67%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-77,42; 5,67</t>
+          <t>-73,58; 6,69</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-93,54; -48,48</t>
+          <t>-93,7; -48,12</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-90,3; -36,58</t>
+          <t>-90,41; -44,91</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-52,99; 96,28</t>
+          <t>-76,37; -28,87</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-77,24; -31,88</t>
+          <t>-78,65; -38,82</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-77,73; -36,52</t>
+          <t>-87,16; -53,55</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-88,33; -56,46</t>
+          <t>-71,51; -30,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-78,57; -31,7</t>
+          <t>-80,11; -51,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-71,98; -32,51</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>-79,86; -49,96</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>-85,82; -58,04</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>-62,62; -12,52</t>
+          <t>-85,72; -58,73</t>
         </is>
       </c>
     </row>
@@ -2036,62 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-6,67</t>
+          <t>-6,72</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-6,43</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>-2,1</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
-        </is>
-      </c>
-      <c r="L24" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
-      </c>
-      <c r="M24" s="2" t="inlineStr">
-        <is>
-          <t>-2,91</t>
-        </is>
-      </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>-2,01</t>
+          <t>-2,26</t>
         </is>
       </c>
     </row>
@@ -2104,62 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 1,54</t>
+          <t>-7,96; 1,31</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 4,05</t>
+          <t>-7,2; 3,14</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-10,91; -3,16</t>
+          <t>-11,23; -3,37</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-10,84; -2,78</t>
+          <t>-4,77; 6,57</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,78; 4,33</t>
+          <t>-5,85; 2,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 1,9</t>
+          <t>-3,58; 8,7</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 5,83</t>
+          <t>-5,03; 2,05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 7,83</t>
+          <t>-5,16; 1,57</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 1,34</t>
-        </is>
-      </c>
-      <c r="L25" s="2" t="inlineStr">
-        <is>
-          <t>-5,33; 1,5</t>
-        </is>
-      </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>-6,01; 0,67</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>-5,75; 2,11</t>
+          <t>-5,32; 2,7</t>
         </is>
       </c>
     </row>
@@ -2172,62 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-43,53%</t>
+          <t>-47,51%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-26,62%</t>
+          <t>-29,43%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-87,48%</t>
+          <t>-88,54%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-84,3%</t>
+          <t>-4,94%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-19,25%</t>
+          <t>-28,22%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-29,5%</t>
+          <t>16,58%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-0,52%</t>
+          <t>-24,08%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>-28,75%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-30,18%</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
-        <is>
-          <t>-28,19%</t>
-        </is>
-      </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>-39,82%</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>-27,48%</t>
+          <t>-30,95%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-79,7; 40,2</t>
+          <t>-81,24; 40,03</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-75,88; 85,99</t>
+          <t>-73,96; 65,74</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -39,72</t>
+          <t>-100,0; -47,12</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -35,23</t>
+          <t>-57,03; 112,02</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-65,48; 91,02</t>
+          <t>-66,17; 43,02</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-66,53; 40,5</t>
+          <t>-43,41; 150,55</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 124,15</t>
+          <t>-59,92; 40,82</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-47,35; 147,55</t>
+          <t>-60,78; 26,52</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-61,7; 27,15</t>
-        </is>
-      </c>
-      <c r="L27" s="2" t="inlineStr">
-        <is>
-          <t>-59,43; 26,99</t>
-        </is>
-      </c>
-      <c r="M27" s="2" t="inlineStr">
-        <is>
-          <t>-66,64; 21,11</t>
-        </is>
-      </c>
-      <c r="N27" s="2" t="inlineStr">
-        <is>
-          <t>-64,13; 42,34</t>
+          <t>-63,76; 50,04</t>
         </is>
       </c>
     </row>
@@ -2312,62 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-6,1</t>
+          <t>-6,03</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-9,2</t>
+          <t>-8,93</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-10,51</t>
+          <t>-10,21</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-6,48</t>
+          <t>-8,71</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-9,11</t>
+          <t>-10,07</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-10,08</t>
+          <t>-11,22</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-11,47</t>
+          <t>-7,4</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-5,96</t>
+          <t>-9,51</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-7,64</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>-9,65</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>-11,0</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>-6,26</t>
+          <t>-10,72</t>
         </is>
       </c>
     </row>
@@ -2380,62 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-8,75; -3,46</t>
+          <t>-8,69; -3,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,52; -7,0</t>
+          <t>-11,49; -6,33</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-12,94; -8,35</t>
+          <t>-12,74; -7,61</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-9,15; -3,52</t>
+          <t>-11,39; -5,91</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-11,89; -6,54</t>
+          <t>-12,57; -7,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-12,29; -7,43</t>
+          <t>-13,86; -8,61</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-13,81; -9,0</t>
+          <t>-9,41; -5,42</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-8,87; -3,23</t>
+          <t>-11,27; -7,84</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,51; -5,68</t>
-        </is>
-      </c>
-      <c r="L29" s="2" t="inlineStr">
-        <is>
-          <t>-11,42; -8,01</t>
-        </is>
-      </c>
-      <c r="M29" s="2" t="inlineStr">
-        <is>
-          <t>-12,58; -9,38</t>
-        </is>
-      </c>
-      <c r="N29" s="2" t="inlineStr">
-        <is>
-          <t>-8,26; -4,01</t>
+          <t>-12,51; -8,99</t>
         </is>
       </c>
     </row>
@@ -2448,62 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-40,62%</t>
+          <t>-40,13%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-61,21%</t>
+          <t>-59,45%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-69,92%</t>
+          <t>-67,97%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-43,09%</t>
+          <t>-44,76%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-46,8%</t>
+          <t>-51,72%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-51,8%</t>
+          <t>-57,66%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-58,91%</t>
+          <t>-42,8%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-30,6%</t>
+          <t>-55,0%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-44,18%</t>
-        </is>
-      </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>-55,8%</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>-63,58%</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
-        <is>
-          <t>-36,19%</t>
+          <t>-62,02%</t>
         </is>
       </c>
     </row>
@@ -2516,76 +2087,68 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-52,85; -23,23</t>
+          <t>-53,1; -24,75</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-70,4; -50,71</t>
+          <t>-69,45; -45,63</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-77,87; -59,93</t>
+          <t>-76,48; -55,85</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-55,98; -25,09</t>
+          <t>-54,67; -32,62</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-56,9; -35,27</t>
+          <t>-59,61; -41,83</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-58,67; -40,69</t>
+          <t>-66,5; -47,49</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-66,15; -49,36</t>
+          <t>-51,14; -33,04</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-42,8; -17,19</t>
+          <t>-61,79; -48,02</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-52,13; -34,66</t>
-        </is>
-      </c>
-      <c r="L31" s="2" t="inlineStr">
-        <is>
-          <t>-61,92; -48,81</t>
-        </is>
-      </c>
-      <c r="M31" s="2" t="inlineStr">
-        <is>
-          <t>-69,45; -57,06</t>
-        </is>
-      </c>
-      <c r="N31" s="2" t="inlineStr">
-        <is>
-          <t>-44,81; -24,26</t>
+          <t>-68,68; -54,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
